--- a/testData/use_of_authorization.xlsx
+++ b/testData/use_of_authorization.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_OPI" sheetId="1" r:id="rId1"/>
     <sheet name="upload_operation" sheetId="5" r:id="rId2"/>
     <sheet name="check_OPI" sheetId="2" r:id="rId3"/>
     <sheet name="check_upgrade_uplogo" sheetId="4" r:id="rId4"/>
+    <sheet name="check_updata_auth" sheetId="8" r:id="rId5"/>
+    <sheet name="update_authorization" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,22 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传的文件已经存在！请重新上传！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传的文件已经存在校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件必须以RyArmUdp结尾校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F06_S17_checkout_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,27 +133,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级包不能为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>替换logo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件必须以.RyArmUdp结尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F06_S17_addUpg_logo_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传授权码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权码2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c70bc3ef5000c4477d00c0613cf7732f2c93a74249711203f41411205846d349a24986fc5afdf9f4a62f10184ae60402dbb0d72e158db6f6bf80ddcbf05b8c99d029ea54c85041d489a14ff835c024fdd19856f6b5f679a7e06fcba06393f488583cdca7ad30f3211d27eae0d33b1e95d5c2acfa9306642d2c35e6a64bbeb4ca91d3c068746f84a6fbc6b0210a82e0b4eae765900f778b07083241e1fca6496c279c092247272ab1a677ecf816913973c5f282cdbf8756ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新失败！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新失败校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权码为空校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,11 +265,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +351,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
@@ -553,7 +577,7 @@
     <col min="5" max="5" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -595,14 +619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -610,7 +634,7 @@
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,16 +642,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -637,10 +661,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -650,7 +674,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -660,14 +684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" customWidth="1"/>
@@ -676,7 +700,7 @@
     <col min="5" max="5" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -708,7 +732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -731,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.21875" customWidth="1"/>
@@ -747,7 +771,7 @@
     <col min="5" max="5" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" customHeight="1">
+    <row r="1" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -755,18 +779,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
@@ -774,10 +798,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -787,47 +811,113 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="95.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
